--- a/app/Plantillas/Entrada/PRUEBA_numeros.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_numeros.xlsx
@@ -713,13 +713,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805924FC-7E02-485F-8064-ED48150E9608}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FC924-88A8-4999-89CD-5E6C7B1DF96D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEBB4291-82FD-422F-91CC-7E4D068B21B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A30E82DE-ACAB-4835-BF2A-9527650D99EC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C777A6DA-B40F-49DB-9541-CB2EEF97CC53}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE47FB6-A7F7-4892-BCAE-AC21EE228AE0}"/>
 </file>
--- a/app/Plantillas/Entrada/PRUEBA_numeros.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_numeros.xlsx
@@ -713,13 +713,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FC924-88A8-4999-89CD-5E6C7B1DF96D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A890732C-4BCC-439C-AE6C-83AE6F51F670}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A30E82DE-ACAB-4835-BF2A-9527650D99EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B5E308-4EBD-4A92-95D8-93B764722108}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE47FB6-A7F7-4892-BCAE-AC21EE228AE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEC8402-8B33-4F88-8CDE-0B18C1503DF6}"/>
 </file>
--- a/app/Plantillas/Entrada/PRUEBA_numeros.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_numeros.xlsx
@@ -713,13 +713,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A890732C-4BCC-439C-AE6C-83AE6F51F670}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3C4719-A2CB-4C42-A409-4F7EF6AF107C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B5E308-4EBD-4A92-95D8-93B764722108}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4671F0CB-F34B-4311-95E8-D00C9A6D7BD0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEC8402-8B33-4F88-8CDE-0B18C1503DF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7396C4E-43B9-4B15-8C6C-35F5EAAE3367}"/>
 </file>